--- a/results/results_12_computational_complexity.xlsx
+++ b/results/results_12_computational_complexity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50078DE3-D386-4E14-8DDA-AEA94D37EE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52917C39-C70F-41F0-802E-17601DDF7E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>MASE</t>
   </si>
@@ -109,6 +109,27 @@
   </si>
   <si>
     <t>Rank / Type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Winning method</t>
+  </si>
+  <si>
+    <t>Runner-up</t>
+  </si>
+  <si>
+    <t>Competition method (#8)</t>
+  </si>
+  <si>
+    <t>M4 Benchmark</t>
+  </si>
+  <si>
+    <t>Comparison Benchmark</t>
+  </si>
+  <si>
+    <t>RNN architecture</t>
   </si>
 </sst>
 </file>
@@ -116,8 +137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -159,8 +180,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,9 +478,10 @@
     <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -484,8 +506,11 @@
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -511,8 +536,11 @@
         <f>G2/$G$11</f>
         <v>2777.9310344827586</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -538,8 +566,11 @@
         <f t="shared" ref="H3:H11" si="0">G3/$G$11</f>
         <v>15899.413793103449</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -565,8 +596,11 @@
         <f t="shared" si="0"/>
         <v>8.6206896551724146</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -592,8 +626,11 @@
         <f t="shared" si="0"/>
         <v>11.448275862068966</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -619,8 +656,11 @@
         <f t="shared" si="0"/>
         <v>1045.1379310344828</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -646,8 +686,11 @@
         <f t="shared" si="0"/>
         <v>306.48275862068965</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -664,8 +707,11 @@
         <f t="shared" si="0"/>
         <v>1351.6206896551723</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -681,8 +727,11 @@
       <c r="H9" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -698,8 +747,11 @@
       <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -724,6 +776,9 @@
       <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_12_computational_complexity.xlsx
+++ b/results/results_12_computational_complexity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52917C39-C70F-41F0-802E-17601DDF7E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ED870C-3692-438B-8324-F3AF81A56183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11730" yWindow="2230" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -464,9 +464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
